--- a/fp32_add.xlsx
+++ b/fp32_add.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\InfiScale\tpu_module_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB79AC4B-C8A4-4A7C-9963-10890187401E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773E37EB-9A4C-4A0A-9876-4C2887984728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19305" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
   <si>
     <t>inf</t>
   </si>
@@ -69,9 +69,6 @@
     <t>0xFF800000</t>
   </si>
   <si>
-    <t>0x0</t>
-  </si>
-  <si>
     <t>0x80000000</t>
   </si>
   <si>
@@ -93,7 +90,32 @@
     <t>test_out</t>
   </si>
   <si>
-    <t>result</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>qnan</t>
+  </si>
+  <si>
+    <t>0xFFA00000</t>
+  </si>
+  <si>
+    <t>0xBFC00000</t>
+  </si>
+  <si>
+    <t>-subnormal</t>
+  </si>
+  <si>
+    <t>0x80400000</t>
+  </si>
+  <si>
+    <t>0x00000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x40000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,14 +133,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -134,86 +148,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE7E6E6"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -234,34 +176,213 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -542,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87EA2B9-03D9-4F4B-B4A9-A0BCBE19703C}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A12:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:H13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -553,362 +674,499 @@
     <col min="9" max="9" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="12" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="1" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4" t="s">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4" t="s">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4" t="s">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="1" t="s">
+      <c r="B41" s="8"/>
+      <c r="C41" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
+  <mergeCells count="87">
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fp32_add.xlsx
+++ b/fp32_add.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\InfiScale\tpu_module_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773E37EB-9A4C-4A0A-9876-4C2887984728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13B5733-13E4-4129-A245-B62A96DAA539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28485" yWindow="7755" windowWidth="19200" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -115,7 +115,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x40000000</t>
+    <t>0x00400000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -341,6 +341,30 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -357,30 +381,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87EA2B9-03D9-4F4B-B4A9-A0BCBE19703C}">
   <dimension ref="A12:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -676,410 +676,485 @@
   <sheetData>
     <row r="12" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8" t="s">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="9"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="14" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="14" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8" t="s">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="14" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="14" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8" t="s">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8" t="s">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8" t="s">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8" t="s">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8" t="s">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8" t="s">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="10" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="7" t="s">
+      <c r="D41" s="2"/>
+      <c r="E41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:F41"/>
@@ -1092,81 +1167,6 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G40:H40"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
